--- a/Список.xlsx
+++ b/Список.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anm24\Desktop\lexus\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01985E5C-8BD6-4F27-B650-F3E9CF63F016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -18,10 +24,92 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Имя</t>
+  </si>
+  <si>
+    <t>Фамилия</t>
+  </si>
+  <si>
+    <t>Алмас</t>
+  </si>
+  <si>
+    <t>Нагимов</t>
+  </si>
+  <si>
+    <t>Айжан</t>
+  </si>
+  <si>
+    <t>Досмухамедова</t>
+  </si>
+  <si>
+    <t>Бекжан</t>
+  </si>
+  <si>
+    <t>Султанов</t>
+  </si>
+  <si>
+    <t>Гульнар</t>
+  </si>
+  <si>
+    <t>Аманжолова</t>
+  </si>
+  <si>
+    <t>Данияр</t>
+  </si>
+  <si>
+    <t>Кенжебаев</t>
+  </si>
+  <si>
+    <t>Ержан</t>
+  </si>
+  <si>
+    <t>Калыбеков</t>
+  </si>
+  <si>
+    <t>Жанна</t>
+  </si>
+  <si>
+    <t>Мухамеджанова</t>
+  </si>
+  <si>
+    <t>Илья</t>
+  </si>
+  <si>
+    <t>Кузнецов</t>
+  </si>
+  <si>
+    <t>Камилла</t>
+  </si>
+  <si>
+    <t>Сафиуллина</t>
+  </si>
+  <si>
+    <t>Лайла</t>
+  </si>
+  <si>
+    <t>Абдуллаева</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -49,11 +137,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +424,137 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>